--- a/dashboard/data/scores_correlation_table.xlsx
+++ b/dashboard/data/scores_correlation_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Affichage score global" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t xml:space="preserve">Global score</t>
   </si>
@@ -37,13 +37,16 @@
     <t xml:space="preserve">Long label</t>
   </si>
   <si>
+    <t xml:space="preserve">#820000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non divulguée</t>
   </si>
   <si>
     <t xml:space="preserve">Empreinte carbone même pas publiée</t>
   </si>
   <si>
-    <t xml:space="preserve">C00000</t>
+    <t xml:space="preserve">#C00000</t>
   </si>
   <si>
     <t xml:space="preserve">Très insuffisante</t>
@@ -52,7 +55,7 @@
     <t xml:space="preserve">Emissions de CO2 en hausse</t>
   </si>
   <si>
-    <t xml:space="preserve">FF8939</t>
+    <t xml:space="preserve">#FF8939</t>
   </si>
   <si>
     <t xml:space="preserve">Insuffisante</t>
@@ -61,7 +64,7 @@
     <t xml:space="preserve">Emissions de CO2 en trop faible baisse</t>
   </si>
   <si>
-    <t xml:space="preserve">FEC800</t>
+    <t xml:space="preserve">#FEC800</t>
   </si>
   <si>
     <t xml:space="preserve">Partielle</t>
@@ -70,7 +73,7 @@
     <t xml:space="preserve">Emissions de CO2 en baisse partielle</t>
   </si>
   <si>
-    <t xml:space="preserve">8CDF41</t>
+    <t xml:space="preserve">#8CDF41</t>
   </si>
   <si>
     <t xml:space="preserve">Forte</t>
@@ -79,7 +82,7 @@
     <t xml:space="preserve">Emissions de CO2 en forte baisse</t>
   </si>
   <si>
-    <t xml:space="preserve">0DB800</t>
+    <t xml:space="preserve">#0DB800</t>
   </si>
   <si>
     <t xml:space="preserve">Très forte</t>
@@ -343,10 +346,10 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A1:A7 E1"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.05"/>
@@ -373,14 +376,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>82000</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -388,13 +391,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -402,13 +405,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -416,13 +419,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -430,13 +433,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -444,13 +447,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1464,11 +1467,11 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="A1:A7 C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
@@ -1478,7 +1481,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1494,14 +1497,14 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>82000</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1509,13 +1512,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1523,13 +1526,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1537,13 +1540,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1551,13 +1554,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1565,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1579,13 +1582,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2599,10 +2602,10 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="18.12"/>
@@ -2612,39 +2615,39 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>-0.042</v>
@@ -2654,21 +2657,21 @@
         <v>-0.084</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>-0.025</v>
@@ -2681,16 +2684,16 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>-0.0125</v>
@@ -2703,16 +2706,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>0</v>
@@ -2725,16 +2728,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="n">
         <f aca="false">-F4</f>
@@ -2745,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>-0.0672</v>
@@ -2817,16 +2820,16 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>-0.04</v>
@@ -2838,16 +2841,16 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>-0.02</v>
@@ -2859,16 +2862,16 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0</v>
@@ -2880,16 +2883,16 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="n">
         <f aca="false">-F11</f>
@@ -2902,56 +2905,56 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>-0.2352</v>
@@ -2963,16 +2966,16 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>-0.14</v>
@@ -2984,16 +2987,16 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>-0.07</v>
@@ -3005,16 +3008,16 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
@@ -3026,16 +3029,16 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">-F18</f>
@@ -3048,42 +3051,42 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4082,45 +4085,45 @@
   </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
